--- a/Lab2/Variant_input/2.16.xlsx
+++ b/Lab2/Variant_input/2.16.xlsx
@@ -40,7 +40,6 @@
     </font>
     <font>
       <sz val="13.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -62,29 +61,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -92,75 +91,75 @@
       <left style="none"/>
       <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -714,8 +713,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.00390625"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="47.25">
+    <row r="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
